--- a/sample_output.xlsx
+++ b/sample_output.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LinBin/Documents/repos/ID_submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734A3F56-CA8A-6545-B936-19FB6486AD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B44C05-4751-1042-A2B8-2233226A53E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Complete" sheetId="1" r:id="rId1"/>
-    <sheet name="Removed First Specimen" sheetId="2" r:id="rId2"/>
+    <sheet name="First Specimen Only" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -1157,11 +1157,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CN126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:92" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
@@ -5390,9 +5394,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CN91"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:92" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
